--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/39_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/39_11R22.xlsx
@@ -689,28 +689,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.009827575114579414</v>
+        <v>0.01269938007724245</v>
       </c>
       <c r="E2">
-        <v>0.1889429192674925</v>
+        <v>0.1798208837896692</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2049272198497094</v>
+        <v>0.1947348508857041</v>
       </c>
       <c r="H2">
-        <v>0.1264212815976622</v>
+        <v>0.1214857916658736</v>
       </c>
       <c r="I2">
-        <v>0.01491137815025717</v>
+        <v>0.0174427637997165</v>
       </c>
       <c r="J2">
-        <v>0.03261463869147573</v>
+        <v>0.03396058663758307</v>
       </c>
       <c r="K2">
-        <v>0.01356026304915411</v>
+        <v>0.01618212145523851</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -722,31 +722,31 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.05390148670468743</v>
+        <v>0.05382203438841757</v>
       </c>
       <c r="P2">
-        <v>0.1535209951083063</v>
+        <v>0.1467708664510265</v>
       </c>
       <c r="Q2">
-        <v>0.04973915105478471</v>
+        <v>0.04993841517054795</v>
       </c>
       <c r="R2">
-        <v>0.007705689212730363</v>
+        <v>0.01071957893680819</v>
       </c>
       <c r="S2">
-        <v>0.003426564452126708</v>
+        <v>0.006726990987700701</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.002180214021706507</v>
       </c>
       <c r="V2">
-        <v>0.03633486132684614</v>
+        <v>0.03743169741208674</v>
       </c>
       <c r="W2">
-        <v>0.04700804420976614</v>
+        <v>0.04739018746343902</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -755,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01363392504535475</v>
+        <v>0.01625085093025769</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.001243589819063821</v>
       </c>
       <c r="AB2">
-        <v>0.02518008097900139</v>
+        <v>0.02702385840683575</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01410595597829507</v>
+        <v>0.01669127394194797</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.004237970207770404</v>
+        <v>0.007484063759134097</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -802,28 +802,28 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2813513430161754</v>
+        <v>0.2733983852250336</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.1131555183395425</v>
+        <v>0.1112568182648269</v>
       </c>
       <c r="H3">
-        <v>0.05205739151757476</v>
+        <v>0.05235793631996734</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00120543892149586</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.05197934338320705</v>
+        <v>0.05228269755093708</v>
       </c>
       <c r="L3">
-        <v>0.01946400501331369</v>
+        <v>0.02093775825965701</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.07550251761402933</v>
+        <v>0.07495914827137737</v>
       </c>
       <c r="P3">
-        <v>0.1014494699892957</v>
+        <v>0.0999721325357366</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.009162291893857076</v>
+        <v>0.01100685830554376</v>
       </c>
       <c r="T3">
-        <v>0.01625408256139031</v>
+        <v>0.01784337790166521</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.05640431581689827</v>
+        <v>0.05654839181257407</v>
       </c>
       <c r="W3">
-        <v>0.01961720254675339</v>
+        <v>0.02108544140324341</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.03153475142411076</v>
+        <v>0.03257401463634597</v>
       </c>
       <c r="AA3">
-        <v>0.02072466647527125</v>
+        <v>0.02215304184497267</v>
       </c>
       <c r="AB3">
-        <v>0.05024717635098329</v>
+        <v>0.05061288037573945</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.07304198947904901</v>
+        <v>0.07258718756353937</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02805393457854805</v>
+        <v>0.02921849080734434</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02848553347204516</v>
+        <v>0.03035074528849679</v>
       </c>
       <c r="E4">
-        <v>0.1392792210493116</v>
+        <v>0.1333969248359765</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.155673735402329</v>
+        <v>0.1486450143847299</v>
       </c>
       <c r="H4">
-        <v>0.2708867255471549</v>
+        <v>0.2558014664198346</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001107611855679898</v>
       </c>
       <c r="J4">
-        <v>0.02868304800364113</v>
+        <v>0.03053444815398613</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -942,31 +942,31 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06499928558849774</v>
+        <v>0.06431118779042304</v>
       </c>
       <c r="P4">
-        <v>0.130272359328589</v>
+        <v>0.1250198890108475</v>
       </c>
       <c r="Q4">
-        <v>0.06955732305727774</v>
+        <v>0.06855049381644991</v>
       </c>
       <c r="R4">
-        <v>0.01215088489782958</v>
+        <v>0.01515833526378542</v>
       </c>
       <c r="S4">
-        <v>0.001351986037636072</v>
+        <v>0.005114574692258927</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01131263921515008</v>
+        <v>0.01437870587323867</v>
       </c>
       <c r="V4">
-        <v>0.0340386388737161</v>
+        <v>0.03551553679223293</v>
       </c>
       <c r="W4">
-        <v>0.02158803438510002</v>
+        <v>0.02393556997585771</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01716447513663188</v>
+        <v>0.01982133846570358</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.003248529118945674</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.007436841066311446</v>
+        <v>0.01077393198522734</v>
       </c>
       <c r="AE4">
-        <v>0.00132501524231182</v>
+        <v>0.005089489892950456</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.005794253696466875</v>
+        <v>0.009246206383374945</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,55 +1019,55 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2704086414795412</v>
+        <v>0.2902258553428494</v>
       </c>
       <c r="E5">
-        <v>0.03111892183841836</v>
+        <v>0.02735187057008732</v>
       </c>
       <c r="F5">
-        <v>0.2082307508877682</v>
+        <v>0.2219197455394792</v>
       </c>
       <c r="G5">
-        <v>0.1517049537056725</v>
+        <v>0.1598227964101993</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.007756116428900603</v>
+        <v>0.001686439716303415</v>
       </c>
       <c r="J5">
-        <v>0.006220979023596916</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01135064283970488</v>
+        <v>0.005635240702807098</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.045846610700101</v>
+        <v>0.04353111246719139</v>
       </c>
       <c r="N5">
-        <v>0.07565962763983446</v>
+        <v>0.07628248420518043</v>
       </c>
       <c r="O5">
-        <v>0.007409875756409986</v>
+        <v>0.001306073750709431</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.1074547215308998</v>
+        <v>0.1112112853250262</v>
       </c>
       <c r="R5">
-        <v>0.06121159919154916</v>
+        <v>0.06041046590031098</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001389977961746261</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.003286276469417352</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.004168017652587896</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.006782286893851347</v>
+        <v>0.0006166300698558603</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1129,70 +1129,70 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004615369903935967</v>
+        <v>0.01038848451715591</v>
       </c>
       <c r="E6">
-        <v>0.1958121936262147</v>
+        <v>0.1809958211596289</v>
       </c>
       <c r="F6">
-        <v>0.0142318632788916</v>
+        <v>0.01896940281172062</v>
       </c>
       <c r="G6">
-        <v>0.2136483038440998</v>
+        <v>0.1969112072057643</v>
       </c>
       <c r="H6">
-        <v>0.1586677175086092</v>
+        <v>0.14785133675852</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01504855555188794</v>
+        <v>0.01969814762473479</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.04784183368738099</v>
+        <v>0.04896000320136795</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.05963179933118884</v>
+        <v>0.05948033820713163</v>
       </c>
       <c r="O6">
-        <v>0.1115233741026813</v>
+        <v>0.1057838446859189</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.000820969686727025</v>
+        <v>0.007002693359066673</v>
       </c>
       <c r="R6">
-        <v>0.05376202541694088</v>
+        <v>0.05424266493041485</v>
       </c>
       <c r="S6">
-        <v>0.06113406867383525</v>
+        <v>0.06082083208395893</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.0004537531538321064</v>
       </c>
       <c r="U6">
-        <v>0.04018219752908593</v>
+        <v>0.04212521327559351</v>
       </c>
       <c r="V6">
-        <v>0.007095417975370935</v>
+        <v>0.01260146268266881</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.005617240689478144</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.004339884671122661</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0159843098831496</v>
+        <v>0.02053313301361397</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.002052599262580848</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.001171936705726371</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1239,49 +1239,49 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2809638393189018</v>
+        <v>0.2627731272427534</v>
       </c>
       <c r="E7">
-        <v>7.532292738685638E-05</v>
+        <v>0.005415100911278687</v>
       </c>
       <c r="F7">
-        <v>0.2174506746130551</v>
+        <v>0.2045805641406744</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.02098131180525722</v>
+        <v>0.02456976093524757</v>
       </c>
       <c r="I7">
-        <v>0.009989881143484038</v>
+        <v>0.0144991003827514</v>
       </c>
       <c r="J7">
-        <v>0.1533506682335389</v>
+        <v>0.1458503200509748</v>
       </c>
       <c r="K7">
-        <v>0.0007709586336641202</v>
+        <v>0.006052462077598786</v>
       </c>
       <c r="L7">
-        <v>0.04160206772743611</v>
+        <v>0.04346308243436506</v>
       </c>
       <c r="M7">
-        <v>0.01756408128877014</v>
+        <v>0.02143879740373394</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.09561126548571666</v>
+        <v>0.09294784143192894</v>
       </c>
       <c r="P7">
-        <v>0.03112609490961015</v>
+        <v>0.03386469897984193</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.002678764276159118</v>
       </c>
       <c r="R7">
-        <v>0.002286954253242514</v>
+        <v>0.007441460266609984</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.04078001931357827</v>
+        <v>0.04270989835956832</v>
       </c>
       <c r="W7">
-        <v>0.03974090391116302</v>
+        <v>0.04175783135258725</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.04770595643519512</v>
+        <v>0.04905563840979791</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.0009015513441284167</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1349,16 +1349,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2950080003520708</v>
+        <v>0.3497706172303892</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1483233512869245</v>
+        <v>0.16745279540245</v>
       </c>
       <c r="G8">
-        <v>0.08774291697836228</v>
+        <v>0.09215593987653665</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1367,40 +1367,40 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07117697674014732</v>
+        <v>0.07156574069746792</v>
       </c>
       <c r="K8">
-        <v>0.01935840805703068</v>
+        <v>0.007159215319672987</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.00752698248314592</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.0723296877844732</v>
+        <v>0.07299847253503849</v>
       </c>
       <c r="O8">
-        <v>0.01359842817015425</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.02031428577608444</v>
+        <v>0.008347298358916859</v>
       </c>
       <c r="R8">
-        <v>0.1485648603721558</v>
+        <v>0.1677529727601466</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.04303700672012618</v>
+        <v>0.03658990598639861</v>
       </c>
       <c r="U8">
-        <v>0.01594113825183743</v>
+        <v>0.00291180980415434</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.0223617340739678</v>
+        <v>0.01089212030418824</v>
       </c>
       <c r="Z8">
-        <v>0.01113881372488338</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.02357740922863599</v>
+        <v>0.01240311172464023</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2563681880047425</v>
+        <v>0.2967821582359354</v>
       </c>
       <c r="E9">
-        <v>0.002798391407232036</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1805648624108282</v>
+        <v>0.2025665076665749</v>
       </c>
       <c r="G9">
-        <v>0.1477040799633145</v>
+        <v>0.1617239724314284</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1477,31 +1477,31 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04001578563983831</v>
+        <v>0.02787862159888362</v>
       </c>
       <c r="K9">
-        <v>0.03689158585469256</v>
+        <v>0.0239955661661574</v>
       </c>
       <c r="L9">
-        <v>0.01758541215731457</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1096480712966937</v>
+        <v>0.1144243112819082</v>
       </c>
       <c r="N9">
-        <v>0.008000805259016815</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.0002927771315399687</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.0961228125581613</v>
+        <v>0.09761382122509642</v>
       </c>
       <c r="R9">
-        <v>0.05737440959898589</v>
+        <v>0.04945358597526549</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1513,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.005632415842385576</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.03815145735312161</v>
+        <v>0.02556145541875001</v>
       </c>
       <c r="X9">
-        <v>0.0018705197925836</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.0009784257295490457</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1569,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06167769982348137</v>
+        <v>0.05958262021005924</v>
       </c>
       <c r="E10">
-        <v>0.1852763231601657</v>
+        <v>0.2118602606466314</v>
       </c>
       <c r="F10">
-        <v>0.04686436150203165</v>
+        <v>0.0413320916387632</v>
       </c>
       <c r="G10">
-        <v>0.2374596262658346</v>
+        <v>0.276151836495917</v>
       </c>
       <c r="H10">
-        <v>0.07745164611757444</v>
+        <v>0.07901664995240168</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1590,34 +1590,34 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.07315259407433063</v>
+        <v>0.07372007395838015</v>
       </c>
       <c r="L10">
-        <v>0.01082181001419</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.05130075782422767</v>
+        <v>0.04679788038096667</v>
       </c>
       <c r="N10">
-        <v>0.04087391048025256</v>
+        <v>0.03395165549699085</v>
       </c>
       <c r="O10">
-        <v>0.005471509384173797</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.01331649714367445</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.1392828960047239</v>
+        <v>0.1551948191251375</v>
       </c>
       <c r="S10">
-        <v>0.01046715457223235</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.002319684678019202</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0314914190861044</v>
+        <v>0.02239211209475239</v>
       </c>
       <c r="X10">
-        <v>0.01277210986898324</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.291407532070952</v>
+        <v>0.3404071075977838</v>
       </c>
       <c r="E11">
-        <v>0.04108151900631823</v>
+        <v>0.03287366169161401</v>
       </c>
       <c r="F11">
-        <v>0.1504099774074531</v>
+        <v>0.1671871400876014</v>
       </c>
       <c r="G11">
-        <v>0.1592383902442689</v>
+        <v>0.178033125242517</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1697,55 +1697,55 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0514827326317559</v>
+        <v>0.04565188249526315</v>
       </c>
       <c r="K11">
-        <v>0.01432302240816911</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.03440317897381648</v>
+        <v>0.02466910916435391</v>
       </c>
       <c r="N11">
-        <v>0.02364729551163317</v>
+        <v>0.01145516521823934</v>
       </c>
       <c r="O11">
-        <v>0.005489983879022711</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.03904733265614166</v>
+        <v>0.03037459924809732</v>
       </c>
       <c r="R11">
-        <v>0.1137133857451396</v>
+        <v>0.1221042134322361</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.01768503314272352</v>
+        <v>0.004130336810438038</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.0004377185724037441</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0494166699861267</v>
+        <v>0.0431136590118559</v>
       </c>
       <c r="X11">
-        <v>0.005745931588403382</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.00247029617567175</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1912,97 +1912,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.009827575114579414</v>
+        <v>0.01269938007724245</v>
       </c>
       <c r="E2">
-        <v>0.1987704943820719</v>
+        <v>0.1925202638669117</v>
       </c>
       <c r="F2">
-        <v>0.1987704943820719</v>
+        <v>0.1925202638669117</v>
       </c>
       <c r="G2">
-        <v>0.4036977142317813</v>
+        <v>0.3872551147526158</v>
       </c>
       <c r="H2">
-        <v>0.5301189958294436</v>
+        <v>0.5087409064184893</v>
       </c>
       <c r="I2">
-        <v>0.5450303739797007</v>
+        <v>0.5261836702182059</v>
       </c>
       <c r="J2">
-        <v>0.5776450126711764</v>
+        <v>0.5601442568557889</v>
       </c>
       <c r="K2">
-        <v>0.5912052757203305</v>
+        <v>0.5763263783110275</v>
       </c>
       <c r="L2">
-        <v>0.5912052757203305</v>
+        <v>0.5763263783110275</v>
       </c>
       <c r="M2">
-        <v>0.5912052757203305</v>
+        <v>0.5763263783110275</v>
       </c>
       <c r="N2">
-        <v>0.5912052757203305</v>
+        <v>0.5763263783110275</v>
       </c>
       <c r="O2">
-        <v>0.645106762425018</v>
+        <v>0.6301484126994451</v>
       </c>
       <c r="P2">
-        <v>0.7986277575333243</v>
+        <v>0.7769192791504715</v>
       </c>
       <c r="Q2">
-        <v>0.8483669085881089</v>
+        <v>0.8268576943210195</v>
       </c>
       <c r="R2">
-        <v>0.8560725978008393</v>
+        <v>0.8375772732578277</v>
       </c>
       <c r="S2">
-        <v>0.8594991622529661</v>
+        <v>0.8443042642455284</v>
       </c>
       <c r="T2">
-        <v>0.8594991622529661</v>
+        <v>0.8443042642455284</v>
       </c>
       <c r="U2">
-        <v>0.8594991622529661</v>
+        <v>0.8464844782672349</v>
       </c>
       <c r="V2">
-        <v>0.8958340235798122</v>
+        <v>0.8839161756793217</v>
       </c>
       <c r="W2">
-        <v>0.9428420677895784</v>
+        <v>0.9313063631427607</v>
       </c>
       <c r="X2">
-        <v>0.9428420677895784</v>
+        <v>0.9313063631427607</v>
       </c>
       <c r="Y2">
-        <v>0.9428420677895784</v>
+        <v>0.9313063631427607</v>
       </c>
       <c r="Z2">
-        <v>0.9564759928349331</v>
+        <v>0.9475572140730184</v>
       </c>
       <c r="AA2">
-        <v>0.9564759928349331</v>
+        <v>0.9488008038920822</v>
       </c>
       <c r="AB2">
-        <v>0.9816560738139345</v>
+        <v>0.975824662298918</v>
       </c>
       <c r="AC2">
-        <v>0.9816560738139345</v>
+        <v>0.975824662298918</v>
       </c>
       <c r="AD2">
-        <v>0.9957620297922296</v>
+        <v>0.992515936240866</v>
       </c>
       <c r="AE2">
-        <v>0.9957620297922296</v>
+        <v>0.992515936240866</v>
       </c>
       <c r="AF2">
-        <v>0.9957620297922296</v>
+        <v>0.992515936240866</v>
       </c>
       <c r="AG2">
-        <v>0.9957620297922296</v>
+        <v>0.992515936240866</v>
       </c>
       <c r="AH2">
-        <v>0.9957620297922296</v>
+        <v>0.992515936240866</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2025,100 +2025,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2813513430161754</v>
+        <v>0.2733983852250336</v>
       </c>
       <c r="F3">
-        <v>0.2813513430161754</v>
+        <v>0.2733983852250336</v>
       </c>
       <c r="G3">
-        <v>0.3945068613557179</v>
+        <v>0.3846552034898604</v>
       </c>
       <c r="H3">
-        <v>0.4465642528732927</v>
+        <v>0.4370131398098278</v>
       </c>
       <c r="I3">
-        <v>0.4465642528732927</v>
+        <v>0.4382185787313236</v>
       </c>
       <c r="J3">
-        <v>0.4465642528732927</v>
+        <v>0.4382185787313236</v>
       </c>
       <c r="K3">
-        <v>0.4985435962564997</v>
+        <v>0.4905012762822607</v>
       </c>
       <c r="L3">
-        <v>0.5180076012698134</v>
+        <v>0.5114390345419177</v>
       </c>
       <c r="M3">
-        <v>0.5180076012698134</v>
+        <v>0.5114390345419177</v>
       </c>
       <c r="N3">
-        <v>0.5180076012698134</v>
+        <v>0.5114390345419177</v>
       </c>
       <c r="O3">
-        <v>0.5935101188838428</v>
+        <v>0.5863981828132951</v>
       </c>
       <c r="P3">
-        <v>0.6949595888731385</v>
+        <v>0.6863703153490317</v>
       </c>
       <c r="Q3">
-        <v>0.6949595888731385</v>
+        <v>0.6863703153490317</v>
       </c>
       <c r="R3">
-        <v>0.6949595888731385</v>
+        <v>0.6863703153490317</v>
       </c>
       <c r="S3">
-        <v>0.7041218807669956</v>
+        <v>0.6973771736545754</v>
       </c>
       <c r="T3">
-        <v>0.7203759633283858</v>
+        <v>0.7152205515562406</v>
       </c>
       <c r="U3">
-        <v>0.7203759633283858</v>
+        <v>0.7152205515562406</v>
       </c>
       <c r="V3">
-        <v>0.7767802791452841</v>
+        <v>0.7717689433688147</v>
       </c>
       <c r="W3">
-        <v>0.7963974816920375</v>
+        <v>0.7928543847720582</v>
       </c>
       <c r="X3">
-        <v>0.7963974816920375</v>
+        <v>0.7928543847720582</v>
       </c>
       <c r="Y3">
-        <v>0.7963974816920375</v>
+        <v>0.7928543847720582</v>
       </c>
       <c r="Z3">
-        <v>0.8279322331161483</v>
+        <v>0.8254283994084042</v>
       </c>
       <c r="AA3">
-        <v>0.8486568995914195</v>
+        <v>0.8475814412533769</v>
       </c>
       <c r="AB3">
-        <v>0.8989040759424028</v>
+        <v>0.8981943216291163</v>
       </c>
       <c r="AC3">
-        <v>0.8989040759424028</v>
+        <v>0.8981943216291163</v>
       </c>
       <c r="AD3">
-        <v>0.9719460654214519</v>
+        <v>0.9707815091926556</v>
       </c>
       <c r="AE3">
-        <v>0.9719460654214519</v>
+        <v>0.9707815091926556</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02848553347204516</v>
+        <v>0.03035074528849679</v>
       </c>
       <c r="E4">
-        <v>0.1677647545213568</v>
+        <v>0.1637476701244732</v>
       </c>
       <c r="F4">
-        <v>0.1677647545213568</v>
+        <v>0.1637476701244732</v>
       </c>
       <c r="G4">
-        <v>0.3234384899236858</v>
+        <v>0.3123926845092031</v>
       </c>
       <c r="H4">
-        <v>0.5943252154708407</v>
+        <v>0.5681941509290378</v>
       </c>
       <c r="I4">
-        <v>0.5943252154708407</v>
+        <v>0.5693017627847177</v>
       </c>
       <c r="J4">
-        <v>0.6230082634744818</v>
+        <v>0.5998362109387038</v>
       </c>
       <c r="K4">
-        <v>0.6230082634744818</v>
+        <v>0.5998362109387038</v>
       </c>
       <c r="L4">
-        <v>0.6230082634744818</v>
+        <v>0.5998362109387038</v>
       </c>
       <c r="M4">
-        <v>0.6230082634744818</v>
+        <v>0.5998362109387038</v>
       </c>
       <c r="N4">
-        <v>0.6230082634744818</v>
+        <v>0.5998362109387038</v>
       </c>
       <c r="O4">
-        <v>0.6880075490629796</v>
+        <v>0.6641473987291268</v>
       </c>
       <c r="P4">
-        <v>0.8182799083915686</v>
+        <v>0.7891672877399742</v>
       </c>
       <c r="Q4">
-        <v>0.8878372314488463</v>
+        <v>0.8577177815564242</v>
       </c>
       <c r="R4">
-        <v>0.8999881163466759</v>
+        <v>0.8728761168202096</v>
       </c>
       <c r="S4">
-        <v>0.9013401023843119</v>
+        <v>0.8779906915124686</v>
       </c>
       <c r="T4">
-        <v>0.9013401023843119</v>
+        <v>0.8779906915124686</v>
       </c>
       <c r="U4">
-        <v>0.9126527415994621</v>
+        <v>0.8923693973857072</v>
       </c>
       <c r="V4">
-        <v>0.9466913804731781</v>
+        <v>0.9278849341779402</v>
       </c>
       <c r="W4">
-        <v>0.9682794148582782</v>
+        <v>0.9518205041537978</v>
       </c>
       <c r="X4">
-        <v>0.9682794148582782</v>
+        <v>0.9518205041537978</v>
       </c>
       <c r="Y4">
-        <v>0.9682794148582782</v>
+        <v>0.9518205041537978</v>
       </c>
       <c r="Z4">
-        <v>0.9854438899949101</v>
+        <v>0.9716418426195014</v>
       </c>
       <c r="AA4">
-        <v>0.9854438899949101</v>
+        <v>0.9716418426195014</v>
       </c>
       <c r="AB4">
-        <v>0.9854438899949101</v>
+        <v>0.9748903717384471</v>
       </c>
       <c r="AC4">
-        <v>0.9854438899949101</v>
+        <v>0.9748903717384471</v>
       </c>
       <c r="AD4">
-        <v>0.9928807310612215</v>
+        <v>0.9856643037236744</v>
       </c>
       <c r="AE4">
-        <v>0.9942057463035333</v>
+        <v>0.9907537936166249</v>
       </c>
       <c r="AF4">
-        <v>0.9942057463035333</v>
+        <v>0.9907537936166249</v>
       </c>
       <c r="AG4">
-        <v>0.9942057463035333</v>
+        <v>0.9907537936166249</v>
       </c>
       <c r="AH4">
-        <v>0.9942057463035333</v>
+        <v>0.9907537936166249</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2704086414795412</v>
+        <v>0.2902258553428494</v>
       </c>
       <c r="E5">
-        <v>0.3015275633179595</v>
+        <v>0.3175777259129367</v>
       </c>
       <c r="F5">
-        <v>0.5097583142057277</v>
+        <v>0.5394974714524159</v>
       </c>
       <c r="G5">
-        <v>0.6614632679114002</v>
+        <v>0.6993202678626151</v>
       </c>
       <c r="H5">
-        <v>0.6614632679114002</v>
+        <v>0.6993202678626151</v>
       </c>
       <c r="I5">
-        <v>0.6692193843403008</v>
+        <v>0.7010067075789186</v>
       </c>
       <c r="J5">
-        <v>0.6754403633638977</v>
+        <v>0.7010067075789186</v>
       </c>
       <c r="K5">
-        <v>0.6867910062036026</v>
+        <v>0.7066419482817257</v>
       </c>
       <c r="L5">
-        <v>0.6867910062036026</v>
+        <v>0.7066419482817257</v>
       </c>
       <c r="M5">
-        <v>0.7326376169037035</v>
+        <v>0.7501730607489171</v>
       </c>
       <c r="N5">
-        <v>0.808297244543538</v>
+        <v>0.8264555449540976</v>
       </c>
       <c r="O5">
-        <v>0.815707120299948</v>
+        <v>0.827761618704807</v>
       </c>
       <c r="P5">
-        <v>0.815707120299948</v>
+        <v>0.827761618704807</v>
       </c>
       <c r="Q5">
-        <v>0.9231618418308477</v>
+        <v>0.9389729040298332</v>
       </c>
       <c r="R5">
-        <v>0.9843734410223969</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="S5">
-        <v>0.9843734410223969</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="T5">
-        <v>0.9857634189841431</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="U5">
-        <v>0.9857634189841431</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="V5">
-        <v>0.9857634189841431</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="W5">
-        <v>0.9890496954535605</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="X5">
-        <v>0.9890496954535605</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="Y5">
-        <v>0.9890496954535605</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="Z5">
-        <v>0.9890496954535605</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="AA5">
-        <v>0.9890496954535605</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="AB5">
-        <v>0.9932177131061484</v>
+        <v>0.9993833699301442</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004615369903935967</v>
+        <v>0.01038848451715591</v>
       </c>
       <c r="E6">
-        <v>0.2004275635301507</v>
+        <v>0.1913843056767848</v>
       </c>
       <c r="F6">
-        <v>0.2146594268090423</v>
+        <v>0.2103537084885054</v>
       </c>
       <c r="G6">
-        <v>0.4283077306531421</v>
+        <v>0.4072649156942697</v>
       </c>
       <c r="H6">
-        <v>0.5869754481617513</v>
+        <v>0.5551162524527897</v>
       </c>
       <c r="I6">
-        <v>0.5869754481617513</v>
+        <v>0.5551162524527897</v>
       </c>
       <c r="J6">
-        <v>0.6020240037136392</v>
+        <v>0.5748144000775245</v>
       </c>
       <c r="K6">
-        <v>0.6020240037136392</v>
+        <v>0.5748144000775245</v>
       </c>
       <c r="L6">
-        <v>0.6498658374010202</v>
+        <v>0.6237744032788924</v>
       </c>
       <c r="M6">
-        <v>0.6498658374010202</v>
+        <v>0.6237744032788924</v>
       </c>
       <c r="N6">
-        <v>0.709497636732209</v>
+        <v>0.6832547414860241</v>
       </c>
       <c r="O6">
-        <v>0.8210210108348903</v>
+        <v>0.7890385861719429</v>
       </c>
       <c r="P6">
-        <v>0.8210210108348903</v>
+        <v>0.7890385861719429</v>
       </c>
       <c r="Q6">
-        <v>0.8218419805216174</v>
+        <v>0.7960412795310096</v>
       </c>
       <c r="R6">
-        <v>0.8756040059385582</v>
+        <v>0.8502839444614244</v>
       </c>
       <c r="S6">
-        <v>0.9367380746123934</v>
+        <v>0.9111047765453834</v>
       </c>
       <c r="T6">
-        <v>0.9367380746123934</v>
+        <v>0.9115585296992155</v>
       </c>
       <c r="U6">
-        <v>0.9769202721414794</v>
+        <v>0.953683742974809</v>
       </c>
       <c r="V6">
-        <v>0.9840156901168503</v>
+        <v>0.9662852056574778</v>
       </c>
       <c r="W6">
-        <v>0.9840156901168503</v>
+        <v>0.9662852056574778</v>
       </c>
       <c r="X6">
-        <v>0.9840156901168503</v>
+        <v>0.9719024463469559</v>
       </c>
       <c r="Y6">
-        <v>0.9840156901168503</v>
+        <v>0.9762423310180786</v>
       </c>
       <c r="Z6">
-        <v>0.9840156901168503</v>
+        <v>0.9762423310180786</v>
       </c>
       <c r="AA6">
-        <v>0.9840156901168503</v>
+        <v>0.9762423310180786</v>
       </c>
       <c r="AB6">
-        <v>0.9840156901168503</v>
+        <v>0.9762423310180786</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>0.9967754640316925</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>0.9967754640316925</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>0.9967754640316925</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>0.9967754640316925</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>0.9967754640316925</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>0.9988280632942733</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2809638393189018</v>
+        <v>0.2627731272427534</v>
       </c>
       <c r="E7">
-        <v>0.2810391622462887</v>
+        <v>0.2681882281540321</v>
       </c>
       <c r="F7">
-        <v>0.4984898368593438</v>
+        <v>0.4727687922947065</v>
       </c>
       <c r="G7">
-        <v>0.4984898368593438</v>
+        <v>0.4727687922947065</v>
       </c>
       <c r="H7">
-        <v>0.5194711486646011</v>
+        <v>0.497338553229954</v>
       </c>
       <c r="I7">
-        <v>0.5294610298080852</v>
+        <v>0.5118376536127054</v>
       </c>
       <c r="J7">
-        <v>0.682811698041624</v>
+        <v>0.6576879736636803</v>
       </c>
       <c r="K7">
-        <v>0.6835826566752882</v>
+        <v>0.6637404357412791</v>
       </c>
       <c r="L7">
-        <v>0.7251847244027243</v>
+        <v>0.7072035181756441</v>
       </c>
       <c r="M7">
-        <v>0.7427488056914945</v>
+        <v>0.728642315579378</v>
       </c>
       <c r="N7">
-        <v>0.7427488056914945</v>
+        <v>0.728642315579378</v>
       </c>
       <c r="O7">
-        <v>0.8383600711772111</v>
+        <v>0.8215901570113069</v>
       </c>
       <c r="P7">
-        <v>0.8694861660868213</v>
+        <v>0.8554548559911488</v>
       </c>
       <c r="Q7">
-        <v>0.8694861660868213</v>
+        <v>0.8581336202673079</v>
       </c>
       <c r="R7">
-        <v>0.8717731203400638</v>
+        <v>0.8655750805339179</v>
       </c>
       <c r="S7">
-        <v>0.8717731203400638</v>
+        <v>0.8655750805339179</v>
       </c>
       <c r="T7">
-        <v>0.8717731203400638</v>
+        <v>0.8655750805339179</v>
       </c>
       <c r="U7">
-        <v>0.8717731203400638</v>
+        <v>0.8655750805339179</v>
       </c>
       <c r="V7">
-        <v>0.912553139653642</v>
+        <v>0.9082849788934861</v>
       </c>
       <c r="W7">
-        <v>0.9522940435648051</v>
+        <v>0.9500428102460734</v>
       </c>
       <c r="X7">
-        <v>0.9522940435648051</v>
+        <v>0.9500428102460734</v>
       </c>
       <c r="Y7">
-        <v>0.9522940435648051</v>
+        <v>0.9500428102460734</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.9990984486558713</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.9990984486558713</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.9990984486558713</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.9990984486558713</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2950080003520708</v>
+        <v>0.3497706172303892</v>
       </c>
       <c r="E8">
-        <v>0.2950080003520708</v>
+        <v>0.3497706172303892</v>
       </c>
       <c r="F8">
-        <v>0.4433313516389953</v>
+        <v>0.5172234126328391</v>
       </c>
       <c r="G8">
-        <v>0.5310742686173575</v>
+        <v>0.6093793525093758</v>
       </c>
       <c r="H8">
-        <v>0.5310742686173575</v>
+        <v>0.6093793525093758</v>
       </c>
       <c r="I8">
-        <v>0.5310742686173575</v>
+        <v>0.6093793525093758</v>
       </c>
       <c r="J8">
-        <v>0.6022512453575048</v>
+        <v>0.6809450932068437</v>
       </c>
       <c r="K8">
-        <v>0.6216096534145356</v>
+        <v>0.6881043085265167</v>
       </c>
       <c r="L8">
-        <v>0.6216096534145356</v>
+        <v>0.6881043085265167</v>
       </c>
       <c r="M8">
-        <v>0.6291366358976814</v>
+        <v>0.6881043085265167</v>
       </c>
       <c r="N8">
-        <v>0.7014663236821547</v>
+        <v>0.7611027810615552</v>
       </c>
       <c r="O8">
-        <v>0.7150647518523089</v>
+        <v>0.7611027810615552</v>
       </c>
       <c r="P8">
-        <v>0.7150647518523089</v>
+        <v>0.7611027810615552</v>
       </c>
       <c r="Q8">
-        <v>0.7353790376283933</v>
+        <v>0.7694500794204721</v>
       </c>
       <c r="R8">
-        <v>0.8839438980005492</v>
+        <v>0.9372030521806187</v>
       </c>
       <c r="S8">
-        <v>0.8839438980005492</v>
+        <v>0.9372030521806187</v>
       </c>
       <c r="T8">
-        <v>0.9269809047206754</v>
+        <v>0.9737929581670173</v>
       </c>
       <c r="U8">
-        <v>0.9429220429725128</v>
+        <v>0.9767047679711716</v>
       </c>
       <c r="V8">
-        <v>0.9429220429725128</v>
+        <v>0.9767047679711716</v>
       </c>
       <c r="W8">
-        <v>0.9429220429725128</v>
+        <v>0.9767047679711716</v>
       </c>
       <c r="X8">
-        <v>0.9429220429725128</v>
+        <v>0.9767047679711716</v>
       </c>
       <c r="Y8">
-        <v>0.9652837770464806</v>
+        <v>0.9875968882753599</v>
       </c>
       <c r="Z8">
-        <v>0.976422590771364</v>
+        <v>0.9875968882753599</v>
       </c>
       <c r="AA8">
-        <v>0.976422590771364</v>
+        <v>0.9875968882753599</v>
       </c>
       <c r="AB8">
-        <v>0.976422590771364</v>
+        <v>0.9875968882753599</v>
       </c>
       <c r="AC8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2563681880047425</v>
+        <v>0.2967821582359354</v>
       </c>
       <c r="E9">
-        <v>0.2591665794119746</v>
+        <v>0.2967821582359354</v>
       </c>
       <c r="F9">
-        <v>0.4397314418228028</v>
+        <v>0.4993486659025103</v>
       </c>
       <c r="G9">
-        <v>0.5874355217861172</v>
+        <v>0.6610726383339386</v>
       </c>
       <c r="H9">
-        <v>0.5874355217861172</v>
+        <v>0.6610726383339386</v>
       </c>
       <c r="I9">
-        <v>0.5874355217861172</v>
+        <v>0.6610726383339386</v>
       </c>
       <c r="J9">
-        <v>0.6274513074259556</v>
+        <v>0.6889512599328222</v>
       </c>
       <c r="K9">
-        <v>0.6643428932806481</v>
+        <v>0.7129468260989796</v>
       </c>
       <c r="L9">
-        <v>0.6819283054379627</v>
+        <v>0.7129468260989796</v>
       </c>
       <c r="M9">
-        <v>0.7915763767346564</v>
+        <v>0.8273711373808879</v>
       </c>
       <c r="N9">
-        <v>0.7995771819936732</v>
+        <v>0.8273711373808879</v>
       </c>
       <c r="O9">
-        <v>0.7995771819936732</v>
+        <v>0.8273711373808879</v>
       </c>
       <c r="P9">
-        <v>0.7998699591252132</v>
+        <v>0.8273711373808879</v>
       </c>
       <c r="Q9">
-        <v>0.8959927716833744</v>
+        <v>0.9249849586059843</v>
       </c>
       <c r="R9">
-        <v>0.9533671812823603</v>
+        <v>0.9744385445812498</v>
       </c>
       <c r="S9">
-        <v>0.9533671812823603</v>
+        <v>0.9744385445812498</v>
       </c>
       <c r="T9">
-        <v>0.9533671812823603</v>
+        <v>0.9744385445812498</v>
       </c>
       <c r="U9">
-        <v>0.9533671812823603</v>
+        <v>0.9744385445812498</v>
       </c>
       <c r="V9">
-        <v>0.9589995971247459</v>
+        <v>0.9744385445812498</v>
       </c>
       <c r="W9">
-        <v>0.9971510544778676</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X9">
-        <v>0.9990215742704511</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.9990215742704511</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,64 +2792,64 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06167769982348137</v>
+        <v>0.05958262021005924</v>
       </c>
       <c r="E10">
-        <v>0.246954022983647</v>
+        <v>0.2714428808566907</v>
       </c>
       <c r="F10">
-        <v>0.2938183844856787</v>
+        <v>0.3127749724954538</v>
       </c>
       <c r="G10">
-        <v>0.5312780107515134</v>
+        <v>0.5889268089913708</v>
       </c>
       <c r="H10">
-        <v>0.6087296568690879</v>
+        <v>0.6679434589437725</v>
       </c>
       <c r="I10">
-        <v>0.6087296568690879</v>
+        <v>0.6679434589437725</v>
       </c>
       <c r="J10">
-        <v>0.6087296568690879</v>
+        <v>0.6679434589437725</v>
       </c>
       <c r="K10">
-        <v>0.6818822509434185</v>
+        <v>0.7416635329021526</v>
       </c>
       <c r="L10">
-        <v>0.6927040609576085</v>
+        <v>0.7416635329021526</v>
       </c>
       <c r="M10">
-        <v>0.7440048187818362</v>
+        <v>0.7884614132831193</v>
       </c>
       <c r="N10">
-        <v>0.7848787292620888</v>
+        <v>0.8224130687801101</v>
       </c>
       <c r="O10">
-        <v>0.7903502386462626</v>
+        <v>0.8224130687801101</v>
       </c>
       <c r="P10">
-        <v>0.7903502386462626</v>
+        <v>0.8224130687801101</v>
       </c>
       <c r="Q10">
-        <v>0.8036667357899371</v>
+        <v>0.8224130687801101</v>
       </c>
       <c r="R10">
-        <v>0.942949631794661</v>
+        <v>0.9776078879052476</v>
       </c>
       <c r="S10">
-        <v>0.9534167863668933</v>
+        <v>0.9776078879052476</v>
       </c>
       <c r="T10">
-        <v>0.9557364710449125</v>
+        <v>0.9776078879052476</v>
       </c>
       <c r="U10">
-        <v>0.9557364710449125</v>
+        <v>0.9776078879052476</v>
       </c>
       <c r="V10">
-        <v>0.9557364710449125</v>
+        <v>0.9776078879052476</v>
       </c>
       <c r="W10">
-        <v>0.987227890131017</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -2902,70 +2902,70 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.291407532070952</v>
+        <v>0.3404071075977838</v>
       </c>
       <c r="E11">
-        <v>0.3324890510772703</v>
+        <v>0.3732807692893978</v>
       </c>
       <c r="F11">
-        <v>0.4828990284847234</v>
+        <v>0.5404679093769992</v>
       </c>
       <c r="G11">
-        <v>0.6421374187289923</v>
+        <v>0.7185010346195162</v>
       </c>
       <c r="H11">
-        <v>0.6421374187289923</v>
+        <v>0.7185010346195162</v>
       </c>
       <c r="I11">
-        <v>0.6421374187289923</v>
+        <v>0.7185010346195162</v>
       </c>
       <c r="J11">
-        <v>0.6936201513607483</v>
+        <v>0.7641529171147794</v>
       </c>
       <c r="K11">
-        <v>0.7079431737689174</v>
+        <v>0.7641529171147794</v>
       </c>
       <c r="L11">
-        <v>0.7079431737689174</v>
+        <v>0.7641529171147794</v>
       </c>
       <c r="M11">
-        <v>0.7423463527427339</v>
+        <v>0.7888220262791333</v>
       </c>
       <c r="N11">
-        <v>0.765993648254367</v>
+        <v>0.8002771914973726</v>
       </c>
       <c r="O11">
-        <v>0.7714836321333897</v>
+        <v>0.8002771914973726</v>
       </c>
       <c r="P11">
-        <v>0.7714836321333897</v>
+        <v>0.8002771914973726</v>
       </c>
       <c r="Q11">
-        <v>0.8105309647895313</v>
+        <v>0.8306517907454699</v>
       </c>
       <c r="R11">
-        <v>0.9242443505346709</v>
+        <v>0.952756004177706</v>
       </c>
       <c r="S11">
-        <v>0.9242443505346709</v>
+        <v>0.952756004177706</v>
       </c>
       <c r="T11">
-        <v>0.9419293836773944</v>
+        <v>0.9568863409881441</v>
       </c>
       <c r="U11">
-        <v>0.9419293836773944</v>
+        <v>0.9568863409881441</v>
       </c>
       <c r="V11">
-        <v>0.9423671022497981</v>
+        <v>0.9568863409881441</v>
       </c>
       <c r="W11">
-        <v>0.9917837722359248</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.9975297038243283</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.9975297038243283</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5301189958294436</v>
+        <v>0.5087409064184893</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5180076012698134</v>
+        <v>0.5114390345419177</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5943252154708407</v>
+        <v>0.5681941509290378</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5097583142057277</v>
+        <v>0.5394974714524159</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5869754481617513</v>
+        <v>0.5551162524527897</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3271,16 +3271,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.5118376536127054</v>
+      </c>
+      <c r="G7">
         <v>7</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5194711486646011</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
       </c>
       <c r="H7">
         <v>39</v>
@@ -3312,16 +3312,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5310742686173575</v>
+        <v>0.5172234126328391</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>39</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5874355217861172</v>
+        <v>0.6610726383339386</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5312780107515134</v>
+        <v>0.5889268089913708</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -3435,16 +3435,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6421374187289923</v>
+        <v>0.5404679093769992</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>39</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7986277575333243</v>
+        <v>0.7769192791504715</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -3571,16 +3571,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7041218807669956</v>
+        <v>0.7152205515562406</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8182799083915686</v>
+        <v>0.7891672877399742</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3653,16 +3653,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7326376169037035</v>
+        <v>0.7010067075789186</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -3694,16 +3694,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.709497636732209</v>
+        <v>0.7890385861719429</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7251847244027243</v>
+        <v>0.7072035181756441</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7014663236821547</v>
+        <v>0.7611027810615552</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3817,16 +3817,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7915763767346564</v>
+        <v>0.7129468260989796</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>39</v>
@@ -3858,16 +3858,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7440048187818362</v>
+        <v>0.7416635329021526</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>39</v>
@@ -3899,16 +3899,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7079431737689174</v>
+        <v>0.7185010346195162</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>39</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8483669085881089</v>
+        <v>0.8268576943210195</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8279322331161483</v>
+        <v>0.8254283994084042</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -4076,16 +4076,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8182799083915686</v>
+        <v>0.8577177815564242</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.808297244543538</v>
+        <v>0.8264555449540976</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -4158,16 +4158,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8210210108348903</v>
+        <v>0.8502839444614244</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8383600711772111</v>
+        <v>0.8215901570113069</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8839438980005492</v>
+        <v>0.9372030521806187</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -4281,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8959927716833744</v>
+        <v>0.8273711373808879</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>39</v>
@@ -4322,16 +4322,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8036667357899371</v>
+        <v>0.8224130687801101</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>39</v>
@@ -4363,16 +4363,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8105309647895313</v>
+        <v>0.8002771914973726</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>39</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9428420677895784</v>
+        <v>0.9313063631427607</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9719460654214519</v>
+        <v>0.9707815091926556</v>
       </c>
       <c r="G3">
         <v>27</v>
@@ -4540,16 +4540,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9013401023843119</v>
+        <v>0.9278849341779402</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9231618418308477</v>
+        <v>0.9389729040298332</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9367380746123934</v>
+        <v>0.9111047765453834</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.912553139653642</v>
+        <v>0.9082849788934861</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -4704,16 +4704,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9269809047206754</v>
+        <v>0.9372030521806187</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>39</v>
@@ -4745,16 +4745,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9533671812823603</v>
+        <v>0.9249849586059843</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>39</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.942949631794661</v>
+        <v>0.9776078879052476</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9242443505346709</v>
+        <v>0.952756004177706</v>
       </c>
       <c r="G11">
         <v>16</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/39_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/39_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,28 +689,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01269938007724245</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1798208837896692</v>
+        <v>0.2464264209758469</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1947348508857041</v>
+        <v>0.2705459501165211</v>
       </c>
       <c r="H2">
-        <v>0.1214857916658736</v>
+        <v>0.1520843223683028</v>
       </c>
       <c r="I2">
-        <v>0.0174427637997165</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03396058663758307</v>
+        <v>0.01053467835811954</v>
       </c>
       <c r="K2">
-        <v>0.01618212145523851</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -722,31 +722,31 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.05382203438841757</v>
+        <v>0.04265549267382166</v>
       </c>
       <c r="P2">
-        <v>0.1467708664510265</v>
+        <v>0.1929764669048667</v>
       </c>
       <c r="Q2">
-        <v>0.04993841517054795</v>
+        <v>0.03637473140530632</v>
       </c>
       <c r="R2">
-        <v>0.01071957893680819</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.006726990987700701</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.002180214021706507</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.03743169741208674</v>
+        <v>0.01614831267399566</v>
       </c>
       <c r="W2">
-        <v>0.04739018746343902</v>
+        <v>0.03225362452321942</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -755,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01625085093025769</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.001243589819063821</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02702385840683575</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01669127394194797</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.007484063759134097</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -802,28 +802,28 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2733983852250336</v>
+        <v>0.4044772809294738</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.1112568182648269</v>
+        <v>0.1383642965967667</v>
       </c>
       <c r="H3">
-        <v>0.05235793631996734</v>
+        <v>0.04169718314736316</v>
       </c>
       <c r="I3">
-        <v>0.00120543892149586</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.05228269755093708</v>
+        <v>0.0415736983819231</v>
       </c>
       <c r="L3">
-        <v>0.02093775825965701</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.07495914827137737</v>
+        <v>0.07879116265356749</v>
       </c>
       <c r="P3">
-        <v>0.0999721325357366</v>
+        <v>0.1198434357655529</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.01100685830554376</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01784337790166521</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.05654839181257407</v>
+        <v>0.04857472009089496</v>
       </c>
       <c r="W3">
-        <v>0.02108544140324341</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.03257401463634597</v>
+        <v>0.009227048932334066</v>
       </c>
       <c r="AA3">
-        <v>0.02215304184497267</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05061288037573945</v>
+        <v>0.03883313012350168</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.07258718756353937</v>
+        <v>0.07489820938737879</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02921849080734434</v>
+        <v>0.003719833991243192</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03035074528849679</v>
+        <v>0.004358509015333125</v>
       </c>
       <c r="E4">
-        <v>0.1333969248359765</v>
+        <v>0.1643084102236383</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1486450143847299</v>
+        <v>0.1879767347326002</v>
       </c>
       <c r="H4">
-        <v>0.2558014664198346</v>
+        <v>0.3543066655666707</v>
       </c>
       <c r="I4">
-        <v>0.001107611855679898</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03053444815398613</v>
+        <v>0.004643655493501816</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -942,31 +942,31 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06431118779042304</v>
+        <v>0.05707244219585043</v>
       </c>
       <c r="P4">
-        <v>0.1250198890108475</v>
+        <v>0.15130544341272</v>
       </c>
       <c r="Q4">
-        <v>0.06855049381644991</v>
+        <v>0.06365275971011927</v>
       </c>
       <c r="R4">
-        <v>0.01515833526378542</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.005114574692258927</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01437870587323867</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.03551553679223293</v>
+        <v>0.01237537964956611</v>
       </c>
       <c r="W4">
-        <v>0.02393556997585771</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01982133846570358</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.003248529118945674</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01077393198522734</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.005089489892950456</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.009246206383374945</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,49 +1019,49 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2902258553428494</v>
+        <v>0.3264872390527695</v>
       </c>
       <c r="E5">
-        <v>0.02735187057008732</v>
+        <v>0.00814785534181561</v>
       </c>
       <c r="F5">
-        <v>0.2219197455394792</v>
+        <v>0.2437688030032898</v>
       </c>
       <c r="G5">
-        <v>0.1598227964101993</v>
+        <v>0.1685696366299664</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001686439716303415</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.005635240702807098</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.04353111246719139</v>
+        <v>0.02774085500242039</v>
       </c>
       <c r="N5">
-        <v>0.07628248420518043</v>
+        <v>0.06740264011125283</v>
       </c>
       <c r="O5">
-        <v>0.001306073750709431</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.1112112853250262</v>
+        <v>0.1097012838201997</v>
       </c>
       <c r="R5">
-        <v>0.06041046590031098</v>
+        <v>0.04818168703828575</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0006166300698558603</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1132,67 +1132,67 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1828958316752395</v>
+        <v>0.2390025433058243</v>
       </c>
       <c r="F6">
-        <v>0.01916853483911332</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1989782900916315</v>
+        <v>0.2640356065860182</v>
       </c>
       <c r="H6">
-        <v>0.1494034117886972</v>
+        <v>0.1868700990787599</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01990492967851512</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0494739626968465</v>
+        <v>0.03132545796086168</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06010473531940503</v>
+        <v>0.04787272933490844</v>
       </c>
       <c r="O6">
-        <v>0.1068943146183031</v>
+        <v>0.1207027948085512</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.007076204398904928</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.05481207936828542</v>
+        <v>0.03963447446650904</v>
       </c>
       <c r="S6">
-        <v>0.0614593010816812</v>
+        <v>0.04998117131351053</v>
       </c>
       <c r="T6">
-        <v>0.0004585164448199804</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.04256742430390988</v>
+        <v>0.02057512314505692</v>
       </c>
       <c r="V6">
-        <v>0.012733747016394</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.005676207887230801</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.004385442775496783</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02074868035826724</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.002074146501396922</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001184239155861648</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1239,49 +1239,49 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2627731272427534</v>
+        <v>0.3536205150937095</v>
       </c>
       <c r="E7">
-        <v>0.005415100911278687</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2045805641406744</v>
+        <v>0.2659035752561323</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.02456976093524757</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0144991003827514</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1458503200509748</v>
+        <v>0.177376158472211</v>
       </c>
       <c r="K7">
-        <v>0.006052462077598786</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.04346308243436506</v>
+        <v>0.0230420875292007</v>
       </c>
       <c r="M7">
-        <v>0.02143879740373394</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.09294784143192894</v>
+        <v>0.0976332620105879</v>
       </c>
       <c r="P7">
-        <v>0.03386469897984193</v>
+        <v>0.008573901576615963</v>
       </c>
       <c r="Q7">
-        <v>0.002678764276159118</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.007441460266609984</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.04270989835956832</v>
+        <v>0.02190677059772829</v>
       </c>
       <c r="W7">
-        <v>0.04175783135258725</v>
+        <v>0.02047166618024101</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.04905563840979791</v>
+        <v>0.03147206328357333</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.0009015513441284167</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1349,16 +1349,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3497706172303892</v>
+        <v>0.3926389759449423</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.16745279540245</v>
+        <v>0.178709660294032</v>
       </c>
       <c r="G8">
-        <v>0.09215593987653665</v>
+        <v>0.09035732802162211</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07156574069746792</v>
+        <v>0.06619706121209899</v>
       </c>
       <c r="K8">
-        <v>0.007159215319672987</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.07299847253503849</v>
+        <v>0.06787820976054977</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.008347298358916859</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.1677529727601466</v>
+        <v>0.179061884426934</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.03658990598639861</v>
+        <v>0.02515688033982081</v>
       </c>
       <c r="U8">
-        <v>0.00291180980415434</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.01089212030418824</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01240311172464023</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2967821582359354</v>
+        <v>0.3145622260515998</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2025665076665749</v>
+        <v>0.21132437906357</v>
       </c>
       <c r="G9">
-        <v>0.1617239724314284</v>
+        <v>0.1665707168245651</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02787862159888362</v>
+        <v>0.01990818500733975</v>
       </c>
       <c r="K9">
-        <v>0.0239955661661574</v>
+        <v>0.01565328382916761</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1144243112819082</v>
+        <v>0.1147415870480326</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.09761382122509642</v>
+        <v>0.09632130560019303</v>
       </c>
       <c r="R9">
-        <v>0.04945358597526549</v>
+        <v>0.04354919218184686</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.02556145541875001</v>
+        <v>0.01736912439368555</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1569,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05958262021005924</v>
+        <v>0.05292920885192175</v>
       </c>
       <c r="E10">
-        <v>0.2118602606466314</v>
+        <v>0.2302744263490739</v>
       </c>
       <c r="F10">
-        <v>0.0413320916387632</v>
+        <v>0.03167432238510236</v>
       </c>
       <c r="G10">
-        <v>0.276151836495917</v>
+        <v>0.30514952599954</v>
       </c>
       <c r="H10">
-        <v>0.07901664995240168</v>
+        <v>0.07556242159163071</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1590,16 +1590,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.07372007395838015</v>
+        <v>0.06939393606114209</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.04679788038096667</v>
+        <v>0.03803987605733249</v>
       </c>
       <c r="N10">
-        <v>0.03395165549699085</v>
+        <v>0.02307893668675588</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.1551948191251375</v>
+        <v>0.1642808568244179</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.02239211209475239</v>
+        <v>0.009616489193083007</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3404071075977838</v>
+        <v>0.3774257414001699</v>
       </c>
       <c r="E11">
-        <v>0.03287366169161401</v>
+        <v>0.02291998630802165</v>
       </c>
       <c r="F11">
-        <v>0.1671871400876014</v>
+        <v>0.1777483528212042</v>
       </c>
       <c r="G11">
-        <v>0.178033125242517</v>
+        <v>0.1902509414282161</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04565188249526315</v>
+        <v>0.03764993804183714</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.02466910916435391</v>
+        <v>0.0134622797476856</v>
       </c>
       <c r="N11">
-        <v>0.01145516521823934</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.03037459924809732</v>
+        <v>0.02003921990568498</v>
       </c>
       <c r="R11">
-        <v>0.1221042134322361</v>
+        <v>0.1257795111603188</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.004130336810438038</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0431136590118559</v>
+        <v>0.03472402918686189</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1912,97 +1912,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01269938007724245</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1925202638669117</v>
+        <v>0.2464264209758469</v>
       </c>
       <c r="F2">
-        <v>0.1925202638669117</v>
+        <v>0.2464264209758469</v>
       </c>
       <c r="G2">
-        <v>0.3872551147526158</v>
+        <v>0.5169723710923679</v>
       </c>
       <c r="H2">
-        <v>0.5087409064184893</v>
+        <v>0.6690566934606708</v>
       </c>
       <c r="I2">
-        <v>0.5261836702182059</v>
+        <v>0.6690566934606708</v>
       </c>
       <c r="J2">
-        <v>0.5601442568557889</v>
+        <v>0.6795913718187903</v>
       </c>
       <c r="K2">
-        <v>0.5763263783110275</v>
+        <v>0.6795913718187903</v>
       </c>
       <c r="L2">
-        <v>0.5763263783110275</v>
+        <v>0.6795913718187903</v>
       </c>
       <c r="M2">
-        <v>0.5763263783110275</v>
+        <v>0.6795913718187903</v>
       </c>
       <c r="N2">
-        <v>0.5763263783110275</v>
+        <v>0.6795913718187903</v>
       </c>
       <c r="O2">
-        <v>0.6301484126994451</v>
+        <v>0.7222468644926119</v>
       </c>
       <c r="P2">
-        <v>0.7769192791504715</v>
+        <v>0.9152233313974786</v>
       </c>
       <c r="Q2">
-        <v>0.8268576943210195</v>
+        <v>0.9515980628027849</v>
       </c>
       <c r="R2">
-        <v>0.8375772732578277</v>
+        <v>0.9515980628027849</v>
       </c>
       <c r="S2">
-        <v>0.8443042642455284</v>
+        <v>0.9515980628027849</v>
       </c>
       <c r="T2">
-        <v>0.8443042642455284</v>
+        <v>0.9515980628027849</v>
       </c>
       <c r="U2">
-        <v>0.8464844782672349</v>
+        <v>0.9515980628027849</v>
       </c>
       <c r="V2">
-        <v>0.8839161756793217</v>
+        <v>0.9677463754767806</v>
       </c>
       <c r="W2">
-        <v>0.9313063631427607</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9313063631427607</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9313063631427607</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9475572140730184</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9488008038920822</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.975824662298918</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.975824662298918</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.992515936240866</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.992515936240866</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.992515936240866</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.992515936240866</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.992515936240866</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2025,100 +2025,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2733983852250336</v>
+        <v>0.4044772809294738</v>
       </c>
       <c r="F3">
-        <v>0.2733983852250336</v>
+        <v>0.4044772809294738</v>
       </c>
       <c r="G3">
-        <v>0.3846552034898604</v>
+        <v>0.5428415775262405</v>
       </c>
       <c r="H3">
-        <v>0.4370131398098278</v>
+        <v>0.5845387606736037</v>
       </c>
       <c r="I3">
-        <v>0.4382185787313236</v>
+        <v>0.5845387606736037</v>
       </c>
       <c r="J3">
-        <v>0.4382185787313236</v>
+        <v>0.5845387606736037</v>
       </c>
       <c r="K3">
-        <v>0.4905012762822607</v>
+        <v>0.6261124590555268</v>
       </c>
       <c r="L3">
-        <v>0.5114390345419177</v>
+        <v>0.6261124590555268</v>
       </c>
       <c r="M3">
-        <v>0.5114390345419177</v>
+        <v>0.6261124590555268</v>
       </c>
       <c r="N3">
-        <v>0.5114390345419177</v>
+        <v>0.6261124590555268</v>
       </c>
       <c r="O3">
-        <v>0.5863981828132951</v>
+        <v>0.7049036217090943</v>
       </c>
       <c r="P3">
-        <v>0.6863703153490317</v>
+        <v>0.8247470574746472</v>
       </c>
       <c r="Q3">
-        <v>0.6863703153490317</v>
+        <v>0.8247470574746472</v>
       </c>
       <c r="R3">
-        <v>0.6863703153490317</v>
+        <v>0.8247470574746472</v>
       </c>
       <c r="S3">
-        <v>0.6973771736545754</v>
+        <v>0.8247470574746472</v>
       </c>
       <c r="T3">
-        <v>0.7152205515562406</v>
+        <v>0.8247470574746472</v>
       </c>
       <c r="U3">
-        <v>0.7152205515562406</v>
+        <v>0.8247470574746472</v>
       </c>
       <c r="V3">
-        <v>0.7717689433688147</v>
+        <v>0.8733217775655421</v>
       </c>
       <c r="W3">
-        <v>0.7928543847720582</v>
+        <v>0.8733217775655421</v>
       </c>
       <c r="X3">
-        <v>0.7928543847720582</v>
+        <v>0.8733217775655421</v>
       </c>
       <c r="Y3">
-        <v>0.7928543847720582</v>
+        <v>0.8733217775655421</v>
       </c>
       <c r="Z3">
-        <v>0.8254283994084042</v>
+        <v>0.8825488264978761</v>
       </c>
       <c r="AA3">
-        <v>0.8475814412533769</v>
+        <v>0.8825488264978761</v>
       </c>
       <c r="AB3">
-        <v>0.8981943216291163</v>
+        <v>0.9213819566213778</v>
       </c>
       <c r="AC3">
-        <v>0.8981943216291163</v>
+        <v>0.9213819566213778</v>
       </c>
       <c r="AD3">
-        <v>0.9707815091926556</v>
+        <v>0.9962801660087566</v>
       </c>
       <c r="AE3">
-        <v>0.9707815091926556</v>
+        <v>0.9962801660087566</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03035074528849679</v>
+        <v>0.004358509015333125</v>
       </c>
       <c r="E4">
-        <v>0.1637476701244732</v>
+        <v>0.1686669192389715</v>
       </c>
       <c r="F4">
-        <v>0.1637476701244732</v>
+        <v>0.1686669192389715</v>
       </c>
       <c r="G4">
-        <v>0.3123926845092031</v>
+        <v>0.3566436539715716</v>
       </c>
       <c r="H4">
-        <v>0.5681941509290378</v>
+        <v>0.7109503195382423</v>
       </c>
       <c r="I4">
-        <v>0.5693017627847177</v>
+        <v>0.7109503195382423</v>
       </c>
       <c r="J4">
-        <v>0.5998362109387038</v>
+        <v>0.715593975031744</v>
       </c>
       <c r="K4">
-        <v>0.5998362109387038</v>
+        <v>0.715593975031744</v>
       </c>
       <c r="L4">
-        <v>0.5998362109387038</v>
+        <v>0.715593975031744</v>
       </c>
       <c r="M4">
-        <v>0.5998362109387038</v>
+        <v>0.715593975031744</v>
       </c>
       <c r="N4">
-        <v>0.5998362109387038</v>
+        <v>0.715593975031744</v>
       </c>
       <c r="O4">
-        <v>0.6641473987291268</v>
+        <v>0.7726664172275944</v>
       </c>
       <c r="P4">
-        <v>0.7891672877399742</v>
+        <v>0.9239718606403144</v>
       </c>
       <c r="Q4">
-        <v>0.8577177815564242</v>
+        <v>0.9876246203504337</v>
       </c>
       <c r="R4">
-        <v>0.8728761168202096</v>
+        <v>0.9876246203504337</v>
       </c>
       <c r="S4">
-        <v>0.8779906915124686</v>
+        <v>0.9876246203504337</v>
       </c>
       <c r="T4">
-        <v>0.8779906915124686</v>
+        <v>0.9876246203504337</v>
       </c>
       <c r="U4">
-        <v>0.8923693973857072</v>
+        <v>0.9876246203504337</v>
       </c>
       <c r="V4">
-        <v>0.9278849341779402</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W4">
-        <v>0.9518205041537978</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X4">
-        <v>0.9518205041537978</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y4">
-        <v>0.9518205041537978</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.9716418426195014</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.9716418426195014</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.9748903717384471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.9748903717384471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.9856643037236744</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.9907537936166249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.9907537936166249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.9907537936166249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.9907537936166249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,79 +2242,79 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2902258553428494</v>
+        <v>0.3264872390527695</v>
       </c>
       <c r="E5">
-        <v>0.3175777259129367</v>
+        <v>0.3346350943945851</v>
       </c>
       <c r="F5">
-        <v>0.5394974714524159</v>
+        <v>0.5784038973978749</v>
       </c>
       <c r="G5">
-        <v>0.6993202678626151</v>
+        <v>0.7469735340278413</v>
       </c>
       <c r="H5">
-        <v>0.6993202678626151</v>
+        <v>0.7469735340278413</v>
       </c>
       <c r="I5">
-        <v>0.7010067075789186</v>
+        <v>0.7469735340278413</v>
       </c>
       <c r="J5">
-        <v>0.7010067075789186</v>
+        <v>0.7469735340278413</v>
       </c>
       <c r="K5">
-        <v>0.7066419482817257</v>
+        <v>0.7469735340278413</v>
       </c>
       <c r="L5">
-        <v>0.7066419482817257</v>
+        <v>0.7469735340278413</v>
       </c>
       <c r="M5">
-        <v>0.7501730607489171</v>
+        <v>0.7747143890302617</v>
       </c>
       <c r="N5">
-        <v>0.8264555449540976</v>
+        <v>0.8421170291415145</v>
       </c>
       <c r="O5">
-        <v>0.827761618704807</v>
+        <v>0.8421170291415145</v>
       </c>
       <c r="P5">
-        <v>0.827761618704807</v>
+        <v>0.8421170291415145</v>
       </c>
       <c r="Q5">
-        <v>0.9389729040298332</v>
+        <v>0.9518183129617143</v>
       </c>
       <c r="R5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9993833699301442</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -2355,100 +2355,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1828958316752395</v>
+        <v>0.2390025433058243</v>
       </c>
       <c r="F6">
-        <v>0.2020643665143528</v>
+        <v>0.2390025433058243</v>
       </c>
       <c r="G6">
-        <v>0.4010426566059843</v>
+        <v>0.5030381498918424</v>
       </c>
       <c r="H6">
-        <v>0.5504460683946815</v>
+        <v>0.6899082489706023</v>
       </c>
       <c r="I6">
-        <v>0.5504460683946815</v>
+        <v>0.6899082489706023</v>
       </c>
       <c r="J6">
-        <v>0.5703509980731966</v>
+        <v>0.6899082489706023</v>
       </c>
       <c r="K6">
-        <v>0.5703509980731966</v>
+        <v>0.6899082489706023</v>
       </c>
       <c r="L6">
-        <v>0.619824960770043</v>
+        <v>0.721233706931464</v>
       </c>
       <c r="M6">
-        <v>0.619824960770043</v>
+        <v>0.721233706931464</v>
       </c>
       <c r="N6">
-        <v>0.6799296960894481</v>
+        <v>0.7691064362663724</v>
       </c>
       <c r="O6">
-        <v>0.7868240107077512</v>
+        <v>0.8898092310749237</v>
       </c>
       <c r="P6">
-        <v>0.7868240107077512</v>
+        <v>0.8898092310749237</v>
       </c>
       <c r="Q6">
-        <v>0.7939002151066561</v>
+        <v>0.8898092310749237</v>
       </c>
       <c r="R6">
-        <v>0.8487122944749415</v>
+        <v>0.9294437055414327</v>
       </c>
       <c r="S6">
-        <v>0.9101715955566226</v>
+        <v>0.9794248768549433</v>
       </c>
       <c r="T6">
-        <v>0.9106301120014426</v>
+        <v>0.9794248768549433</v>
       </c>
       <c r="U6">
-        <v>0.9531975363053525</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.9659312833217465</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.9659312833217465</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.9716074912089773</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.9759929339844741</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.9759929339844741</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9759929339844741</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9759929339844741</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9967416143427413</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9967416143427413</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9967416143427413</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9967416143427413</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9967416143427413</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9988157608441383</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2627731272427534</v>
+        <v>0.3536205150937095</v>
       </c>
       <c r="E7">
-        <v>0.2681882281540321</v>
+        <v>0.3536205150937095</v>
       </c>
       <c r="F7">
-        <v>0.4727687922947065</v>
+        <v>0.6195240903498418</v>
       </c>
       <c r="G7">
-        <v>0.4727687922947065</v>
+        <v>0.6195240903498418</v>
       </c>
       <c r="H7">
-        <v>0.497338553229954</v>
+        <v>0.6195240903498418</v>
       </c>
       <c r="I7">
-        <v>0.5118376536127054</v>
+        <v>0.6195240903498418</v>
       </c>
       <c r="J7">
-        <v>0.6576879736636803</v>
+        <v>0.7969002488220528</v>
       </c>
       <c r="K7">
-        <v>0.6637404357412791</v>
+        <v>0.7969002488220528</v>
       </c>
       <c r="L7">
-        <v>0.7072035181756441</v>
+        <v>0.8199423363512535</v>
       </c>
       <c r="M7">
-        <v>0.728642315579378</v>
+        <v>0.8199423363512535</v>
       </c>
       <c r="N7">
-        <v>0.728642315579378</v>
+        <v>0.8199423363512535</v>
       </c>
       <c r="O7">
-        <v>0.8215901570113069</v>
+        <v>0.9175755983618413</v>
       </c>
       <c r="P7">
-        <v>0.8554548559911488</v>
+        <v>0.9261494999384573</v>
       </c>
       <c r="Q7">
-        <v>0.8581336202673079</v>
+        <v>0.9261494999384573</v>
       </c>
       <c r="R7">
-        <v>0.8655750805339179</v>
+        <v>0.9261494999384573</v>
       </c>
       <c r="S7">
-        <v>0.8655750805339179</v>
+        <v>0.9261494999384573</v>
       </c>
       <c r="T7">
-        <v>0.8655750805339179</v>
+        <v>0.9261494999384573</v>
       </c>
       <c r="U7">
-        <v>0.8655750805339179</v>
+        <v>0.9261494999384573</v>
       </c>
       <c r="V7">
-        <v>0.9082849788934861</v>
+        <v>0.9480562705361856</v>
       </c>
       <c r="W7">
-        <v>0.9500428102460734</v>
+        <v>0.9685279367164266</v>
       </c>
       <c r="X7">
-        <v>0.9500428102460734</v>
+        <v>0.9685279367164266</v>
       </c>
       <c r="Y7">
-        <v>0.9500428102460734</v>
+        <v>0.9685279367164266</v>
       </c>
       <c r="Z7">
-        <v>0.9990984486558713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.9990984486558713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.9990984486558713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.9990984486558713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,79 +2572,79 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3497706172303892</v>
+        <v>0.3926389759449423</v>
       </c>
       <c r="E8">
-        <v>0.3497706172303892</v>
+        <v>0.3926389759449423</v>
       </c>
       <c r="F8">
-        <v>0.5172234126328391</v>
+        <v>0.5713486362389743</v>
       </c>
       <c r="G8">
-        <v>0.6093793525093758</v>
+        <v>0.6617059642605964</v>
       </c>
       <c r="H8">
-        <v>0.6093793525093758</v>
+        <v>0.6617059642605964</v>
       </c>
       <c r="I8">
-        <v>0.6093793525093758</v>
+        <v>0.6617059642605964</v>
       </c>
       <c r="J8">
-        <v>0.6809450932068437</v>
+        <v>0.7279030254726954</v>
       </c>
       <c r="K8">
-        <v>0.6881043085265167</v>
+        <v>0.7279030254726954</v>
       </c>
       <c r="L8">
-        <v>0.6881043085265167</v>
+        <v>0.7279030254726954</v>
       </c>
       <c r="M8">
-        <v>0.6881043085265167</v>
+        <v>0.7279030254726954</v>
       </c>
       <c r="N8">
-        <v>0.7611027810615552</v>
+        <v>0.7957812352332452</v>
       </c>
       <c r="O8">
-        <v>0.7611027810615552</v>
+        <v>0.7957812352332452</v>
       </c>
       <c r="P8">
-        <v>0.7611027810615552</v>
+        <v>0.7957812352332452</v>
       </c>
       <c r="Q8">
-        <v>0.7694500794204721</v>
+        <v>0.7957812352332452</v>
       </c>
       <c r="R8">
-        <v>0.9372030521806187</v>
+        <v>0.9748431196601792</v>
       </c>
       <c r="S8">
-        <v>0.9372030521806187</v>
+        <v>0.9748431196601792</v>
       </c>
       <c r="T8">
-        <v>0.9737929581670173</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.9767047679711716</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.9767047679711716</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9767047679711716</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.9767047679711716</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9875968882753599</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9875968882753599</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9875968882753599</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9875968882753599</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>1</v>
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2967821582359354</v>
+        <v>0.3145622260515998</v>
       </c>
       <c r="E9">
-        <v>0.2967821582359354</v>
+        <v>0.3145622260515998</v>
       </c>
       <c r="F9">
-        <v>0.4993486659025103</v>
+        <v>0.5258866051151698</v>
       </c>
       <c r="G9">
-        <v>0.6610726383339386</v>
+        <v>0.6924573219397349</v>
       </c>
       <c r="H9">
-        <v>0.6610726383339386</v>
+        <v>0.6924573219397349</v>
       </c>
       <c r="I9">
-        <v>0.6610726383339386</v>
+        <v>0.6924573219397349</v>
       </c>
       <c r="J9">
-        <v>0.6889512599328222</v>
+        <v>0.7123655069470746</v>
       </c>
       <c r="K9">
-        <v>0.7129468260989796</v>
+        <v>0.7280187907762422</v>
       </c>
       <c r="L9">
-        <v>0.7129468260989796</v>
+        <v>0.7280187907762422</v>
       </c>
       <c r="M9">
-        <v>0.8273711373808879</v>
+        <v>0.8427603778242748</v>
       </c>
       <c r="N9">
-        <v>0.8273711373808879</v>
+        <v>0.8427603778242748</v>
       </c>
       <c r="O9">
-        <v>0.8273711373808879</v>
+        <v>0.8427603778242748</v>
       </c>
       <c r="P9">
-        <v>0.8273711373808879</v>
+        <v>0.8427603778242748</v>
       </c>
       <c r="Q9">
-        <v>0.9249849586059843</v>
+        <v>0.9390816834244679</v>
       </c>
       <c r="R9">
-        <v>0.9744385445812498</v>
+        <v>0.9826308756063147</v>
       </c>
       <c r="S9">
-        <v>0.9744385445812498</v>
+        <v>0.9826308756063147</v>
       </c>
       <c r="T9">
-        <v>0.9744385445812498</v>
+        <v>0.9826308756063147</v>
       </c>
       <c r="U9">
-        <v>0.9744385445812498</v>
+        <v>0.9826308756063147</v>
       </c>
       <c r="V9">
-        <v>0.9744385445812498</v>
+        <v>0.9826308756063147</v>
       </c>
       <c r="W9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,61 +2792,61 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05958262021005924</v>
+        <v>0.05292920885192175</v>
       </c>
       <c r="E10">
-        <v>0.2714428808566907</v>
+        <v>0.2832036352009957</v>
       </c>
       <c r="F10">
-        <v>0.3127749724954538</v>
+        <v>0.314877957586098</v>
       </c>
       <c r="G10">
-        <v>0.5889268089913708</v>
+        <v>0.6200274835856381</v>
       </c>
       <c r="H10">
-        <v>0.6679434589437725</v>
+        <v>0.6955899051772688</v>
       </c>
       <c r="I10">
-        <v>0.6679434589437725</v>
+        <v>0.6955899051772688</v>
       </c>
       <c r="J10">
-        <v>0.6679434589437725</v>
+        <v>0.6955899051772688</v>
       </c>
       <c r="K10">
-        <v>0.7416635329021526</v>
+        <v>0.7649838412384109</v>
       </c>
       <c r="L10">
-        <v>0.7416635329021526</v>
+        <v>0.7649838412384109</v>
       </c>
       <c r="M10">
-        <v>0.7884614132831193</v>
+        <v>0.8030237172957434</v>
       </c>
       <c r="N10">
-        <v>0.8224130687801101</v>
+        <v>0.8261026539824993</v>
       </c>
       <c r="O10">
-        <v>0.8224130687801101</v>
+        <v>0.8261026539824993</v>
       </c>
       <c r="P10">
-        <v>0.8224130687801101</v>
+        <v>0.8261026539824993</v>
       </c>
       <c r="Q10">
-        <v>0.8224130687801101</v>
+        <v>0.8261026539824993</v>
       </c>
       <c r="R10">
-        <v>0.9776078879052476</v>
+        <v>0.9903835108069171</v>
       </c>
       <c r="S10">
-        <v>0.9776078879052476</v>
+        <v>0.9903835108069171</v>
       </c>
       <c r="T10">
-        <v>0.9776078879052476</v>
+        <v>0.9903835108069171</v>
       </c>
       <c r="U10">
-        <v>0.9776078879052476</v>
+        <v>0.9903835108069171</v>
       </c>
       <c r="V10">
-        <v>0.9776078879052476</v>
+        <v>0.9903835108069171</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -2902,61 +2902,61 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3404071075977838</v>
+        <v>0.3774257414001699</v>
       </c>
       <c r="E11">
-        <v>0.3732807692893978</v>
+        <v>0.4003457277081915</v>
       </c>
       <c r="F11">
-        <v>0.5404679093769992</v>
+        <v>0.5780940805293957</v>
       </c>
       <c r="G11">
-        <v>0.7185010346195162</v>
+        <v>0.7683450219576118</v>
       </c>
       <c r="H11">
-        <v>0.7185010346195162</v>
+        <v>0.7683450219576118</v>
       </c>
       <c r="I11">
-        <v>0.7185010346195162</v>
+        <v>0.7683450219576118</v>
       </c>
       <c r="J11">
-        <v>0.7641529171147794</v>
+        <v>0.8059949599994489</v>
       </c>
       <c r="K11">
-        <v>0.7641529171147794</v>
+        <v>0.8059949599994489</v>
       </c>
       <c r="L11">
-        <v>0.7641529171147794</v>
+        <v>0.8059949599994489</v>
       </c>
       <c r="M11">
-        <v>0.7888220262791333</v>
+        <v>0.8194572397471345</v>
       </c>
       <c r="N11">
-        <v>0.8002771914973726</v>
+        <v>0.8194572397471345</v>
       </c>
       <c r="O11">
-        <v>0.8002771914973726</v>
+        <v>0.8194572397471345</v>
       </c>
       <c r="P11">
-        <v>0.8002771914973726</v>
+        <v>0.8194572397471345</v>
       </c>
       <c r="Q11">
-        <v>0.8306517907454699</v>
+        <v>0.8394964596528195</v>
       </c>
       <c r="R11">
-        <v>0.952756004177706</v>
+        <v>0.9652759708131382</v>
       </c>
       <c r="S11">
-        <v>0.952756004177706</v>
+        <v>0.9652759708131382</v>
       </c>
       <c r="T11">
-        <v>0.9568863409881441</v>
+        <v>0.9652759708131382</v>
       </c>
       <c r="U11">
-        <v>0.9568863409881441</v>
+        <v>0.9652759708131382</v>
       </c>
       <c r="V11">
-        <v>0.9568863409881441</v>
+        <v>0.9652759708131382</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5169723710923679</v>
       </c>
       <c r="F2">
-        <v>0.5087409064184893</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>39</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5428415775262405</v>
       </c>
       <c r="F3">
-        <v>0.5114390345419177</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>39</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.7109503195382423</v>
+      </c>
+      <c r="F4">
         <v>7</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5681941509290378</v>
-      </c>
       <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>39</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.5784038973978749</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5394974714524159</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>39</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5030381498918424</v>
       </c>
       <c r="F6">
-        <v>0.5504460683946815</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>39</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.6195240903498418</v>
       </c>
       <c r="F7">
-        <v>0.5118376536127054</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>39</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.5713486362389743</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5172234126328391</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>39</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5258866051151698</v>
       </c>
       <c r="F9">
-        <v>0.6610726383339386</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>39</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.6200274835856381</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5889268089913708</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>39</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.5780940805293957</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5404679093769992</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>39</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7222468644926119</v>
       </c>
       <c r="F2">
-        <v>0.7769192791504715</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>39</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7049036217090943</v>
       </c>
       <c r="F3">
-        <v>0.7152205515562406</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>39</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7109503195382423</v>
       </c>
       <c r="F4">
-        <v>0.7891672877399742</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>39</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7469735340278413</v>
       </c>
       <c r="F5">
-        <v>0.7010067075789186</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>39</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.721233706931464</v>
       </c>
       <c r="F6">
-        <v>0.7868240107077512</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>39</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7969002488220528</v>
       </c>
       <c r="F7">
-        <v>0.7072035181756441</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>39</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7279030254726954</v>
       </c>
       <c r="F8">
-        <v>0.7611027810615552</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>39</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7123655069470746</v>
       </c>
       <c r="F9">
-        <v>0.7129468260989796</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>39</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.7649838412384109</v>
+      </c>
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7416635329021526</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>39</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.7683450219576118</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7185010346195162</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>39</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9152233313974786</v>
       </c>
       <c r="F2">
-        <v>0.8268576943210195</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>39</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8247470574746472</v>
       </c>
       <c r="F3">
-        <v>0.8254283994084042</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>39</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9239718606403144</v>
       </c>
       <c r="F4">
-        <v>0.8577177815564242</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>39</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.8421170291415145</v>
+      </c>
+      <c r="F5">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8264555449540976</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>39</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8898092310749237</v>
       </c>
       <c r="F6">
-        <v>0.8487122944749415</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>39</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8199423363512535</v>
       </c>
       <c r="F7">
-        <v>0.8215901570113069</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>39</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9748431196601792</v>
+      </c>
+      <c r="F8">
         <v>17</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9372030521806187</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>39</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.8427603778242748</v>
+      </c>
+      <c r="F9">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8273711373808879</v>
-      </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>39</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8030237172957434</v>
       </c>
       <c r="F10">
-        <v>0.8224130687801101</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>39</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8059949599994489</v>
       </c>
       <c r="F11">
-        <v>0.8002771914973726</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>39</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9152233313974786</v>
       </c>
       <c r="F2">
-        <v>0.9313063631427607</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>39</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9213819566213778</v>
       </c>
       <c r="F3">
-        <v>0.9707815091926556</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>39</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9239718606403144</v>
       </c>
       <c r="F4">
-        <v>0.9278849341779402</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>39</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9518183129617143</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9389729040298332</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>39</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9294437055414327</v>
       </c>
       <c r="F6">
-        <v>0.9101715955566226</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>39</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9175755983618413</v>
       </c>
       <c r="F7">
-        <v>0.9082849788934861</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>39</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9748431196601792</v>
+      </c>
+      <c r="F8">
         <v>17</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9372030521806187</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>39</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9390816834244679</v>
+      </c>
+      <c r="F9">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9249849586059843</v>
-      </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>39</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9903835108069171</v>
+      </c>
+      <c r="F10">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9776078879052476</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>16</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>39</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9652759708131382</v>
+      </c>
+      <c r="F11">
         <v>17</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.952756004177706</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>39</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
